--- a/Boards/PIC18F4550/Template/documentation/Especificação Técnica.xlsx
+++ b/Boards/PIC18F4550/Template/documentation/Especificação Técnica.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-30" windowWidth="11460" windowHeight="9330"/>
+    <workbookView xWindow="120" yWindow="-36" windowWidth="11460" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos_Firmware" sheetId="4" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requsitos_Hardware!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
   <si>
     <t>Microcontrolador:</t>
   </si>
@@ -467,6 +467,18 @@
   </si>
   <si>
     <t>Projeto:  Template</t>
+  </si>
+  <si>
+    <t>Compilador</t>
+  </si>
+  <si>
+    <t>XC8</t>
+  </si>
+  <si>
+    <t>SERIAL0_TX</t>
+  </si>
+  <si>
+    <t>SERIAL0_RX</t>
   </si>
 </sst>
 </file>
@@ -529,7 +541,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -799,6 +817,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,32 +1138,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1375,20 +1400,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1424,7 +1449,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18">
       <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
@@ -2018,15 +2051,19 @@
       <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="38">
+      <c r="A33" s="48">
         <v>25</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="C33" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="48"/>
       <c r="G33" s="43" t="s">
         <v>100</v>
       </c>
@@ -2040,15 +2077,19 @@
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="38">
+      <c r="A34" s="48">
         <v>26</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="C34" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="14">
